--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43591</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44771</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27976,7 +27976,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43591</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44771</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27976,7 +27976,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y480"/>
+  <dimension ref="A1:Y482"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43591</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44771</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27976,7 +27976,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29300,7 +29300,7 @@
       </c>
       <c r="R479" s="2" t="inlineStr"/>
     </row>
-    <row r="480">
+    <row r="480" ht="15" customHeight="1">
       <c r="A480" t="inlineStr">
         <is>
           <t>A 39069-2023</t>
@@ -29310,7 +29310,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29361,6 +29361,125 @@
         <v>0</v>
       </c>
       <c r="R480" s="2" t="inlineStr"/>
+    </row>
+    <row r="481" ht="15" customHeight="1">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>A 41729-2023</t>
+        </is>
+      </c>
+      <c r="B481" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C481" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E481" t="inlineStr">
+        <is>
+          <t>NORDANSTIG</t>
+        </is>
+      </c>
+      <c r="F481" t="inlineStr">
+        <is>
+          <t>Holmen skog AB</t>
+        </is>
+      </c>
+      <c r="G481" t="n">
+        <v>1</v>
+      </c>
+      <c r="H481" t="n">
+        <v>0</v>
+      </c>
+      <c r="I481" t="n">
+        <v>0</v>
+      </c>
+      <c r="J481" t="n">
+        <v>0</v>
+      </c>
+      <c r="K481" t="n">
+        <v>0</v>
+      </c>
+      <c r="L481" t="n">
+        <v>0</v>
+      </c>
+      <c r="M481" t="n">
+        <v>0</v>
+      </c>
+      <c r="N481" t="n">
+        <v>0</v>
+      </c>
+      <c r="O481" t="n">
+        <v>0</v>
+      </c>
+      <c r="P481" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q481" t="n">
+        <v>0</v>
+      </c>
+      <c r="R481" s="2" t="inlineStr"/>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>A 41721-2023</t>
+        </is>
+      </c>
+      <c r="B482" s="1" t="n">
+        <v>45176</v>
+      </c>
+      <c r="C482" s="1" t="n">
+        <v>45177</v>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E482" t="inlineStr">
+        <is>
+          <t>NORDANSTIG</t>
+        </is>
+      </c>
+      <c r="G482" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="H482" t="n">
+        <v>0</v>
+      </c>
+      <c r="I482" t="n">
+        <v>0</v>
+      </c>
+      <c r="J482" t="n">
+        <v>0</v>
+      </c>
+      <c r="K482" t="n">
+        <v>0</v>
+      </c>
+      <c r="L482" t="n">
+        <v>0</v>
+      </c>
+      <c r="M482" t="n">
+        <v>0</v>
+      </c>
+      <c r="N482" t="n">
+        <v>0</v>
+      </c>
+      <c r="O482" t="n">
+        <v>0</v>
+      </c>
+      <c r="P482" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q482" t="n">
+        <v>0</v>
+      </c>
+      <c r="R482" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43591</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44771</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27976,7 +27976,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43591</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44771</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27976,7 +27976,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43591</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44771</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27976,7 +27976,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43591</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44771</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27976,7 +27976,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43591</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44771</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27976,7 +27976,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43591</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44771</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27976,7 +27976,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -634,27 +634,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 34891-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 34891-2020.xlsx", "A 34891-2020")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 34891-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 34891-2020.png", "A 34891-2020")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 34891-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 34891-2020.docx", "A 34891-2020")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 34891-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 34891-2020.docx", "A 34891-2020")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 34891-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 34891-2020.docx", "A 34891-2020")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 34891-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 34891-2020.docx", "A 34891-2020")</f>
         <v/>
       </c>
     </row>
@@ -668,7 +668,7 @@
         <v>43591</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -723,27 +723,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 22996-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 22996-2019.xlsx", "A 22996-2019")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 22996-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 22996-2019.png", "A 22996-2019")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 22996-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 22996-2019.docx", "A 22996-2019")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 22996-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 22996-2019.docx", "A 22996-2019")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 22996-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 22996-2019.docx", "A 22996-2019")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 22996-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 22996-2019.docx", "A 22996-2019")</f>
         <v/>
       </c>
     </row>
@@ -757,7 +757,7 @@
         <v>44771</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -811,31 +811,31 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 31224-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 31224-2022.xlsx", "A 31224-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 31224-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 31224-2022.png", "A 31224-2022")</f>
         <v/>
       </c>
       <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/knärot/A 31224-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/knärot/A 31224-2022.png", "A 31224-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 31224-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 31224-2022.docx", "A 31224-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 31224-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 31224-2022.docx", "A 31224-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 31224-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 31224-2022.docx", "A 31224-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 31224-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 31224-2022.docx", "A 31224-2022")</f>
         <v/>
       </c>
     </row>
@@ -849,7 +849,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -906,27 +906,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 17913-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 17913-2019.xlsx", "A 17913-2019")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 17913-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 17913-2019.png", "A 17913-2019")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 17913-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 17913-2019.docx", "A 17913-2019")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 17913-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 17913-2019.docx", "A 17913-2019")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 17913-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 17913-2019.docx", "A 17913-2019")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 17913-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 17913-2019.docx", "A 17913-2019")</f>
         <v/>
       </c>
     </row>
@@ -940,7 +940,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -992,27 +992,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 30620-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 30620-2020.xlsx", "A 30620-2020")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 30620-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 30620-2020.png", "A 30620-2020")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 30620-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 30620-2020.docx", "A 30620-2020")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 30620-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 30620-2020.docx", "A 30620-2020")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 30620-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 30620-2020.docx", "A 30620-2020")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 30620-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 30620-2020.docx", "A 30620-2020")</f>
         <v/>
       </c>
     </row>
@@ -1026,7 +1026,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1083,27 +1083,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 33136-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 33136-2020.xlsx", "A 33136-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 33136-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 33136-2020.png", "A 33136-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 33136-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 33136-2020.docx", "A 33136-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 33136-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 33136-2020.docx", "A 33136-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 33136-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 33136-2020.docx", "A 33136-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 33136-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 33136-2020.docx", "A 33136-2020")</f>
         <v/>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1169,27 +1169,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 13026-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 13026-2022.xlsx", "A 13026-2022")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 13026-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 13026-2022.png", "A 13026-2022")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 13026-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 13026-2022.docx", "A 13026-2022")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 13026-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 13026-2022.docx", "A 13026-2022")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 13026-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 13026-2022.docx", "A 13026-2022")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 13026-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 13026-2022.docx", "A 13026-2022")</f>
         <v/>
       </c>
     </row>
@@ -1203,7 +1203,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1255,27 +1255,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 37123-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 37123-2022.xlsx", "A 37123-2022")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 37123-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 37123-2022.png", "A 37123-2022")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 37123-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 37123-2022.docx", "A 37123-2022")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 37123-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 37123-2022.docx", "A 37123-2022")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 37123-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 37123-2022.docx", "A 37123-2022")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 37123-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 37123-2022.docx", "A 37123-2022")</f>
         <v/>
       </c>
     </row>
@@ -1289,7 +1289,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1346,27 +1346,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 7608-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 7608-2023.xlsx", "A 7608-2023")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 7608-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 7608-2023.png", "A 7608-2023")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 7608-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 7608-2023.docx", "A 7608-2023")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 7608-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 7608-2023.docx", "A 7608-2023")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 7608-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 7608-2023.docx", "A 7608-2023")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 7608-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 7608-2023.docx", "A 7608-2023")</f>
         <v/>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1436,27 +1436,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 9038-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 9038-2019.xlsx", "A 9038-2019")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 9038-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 9038-2019.png", "A 9038-2019")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 9038-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 9038-2019.docx", "A 9038-2019")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 9038-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 9038-2019.docx", "A 9038-2019")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 9038-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 9038-2019.docx", "A 9038-2019")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 9038-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 9038-2019.docx", "A 9038-2019")</f>
         <v/>
       </c>
     </row>
@@ -1470,7 +1470,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1526,27 +1526,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 41576-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 41576-2019.xlsx", "A 41576-2019")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 41576-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 41576-2019.png", "A 41576-2019")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 41576-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 41576-2019.docx", "A 41576-2019")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 41576-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 41576-2019.docx", "A 41576-2019")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 41576-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 41576-2019.docx", "A 41576-2019")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 41576-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 41576-2019.docx", "A 41576-2019")</f>
         <v/>
       </c>
     </row>
@@ -1560,7 +1560,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,27 +1616,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 10186-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 10186-2020.xlsx", "A 10186-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 10186-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 10186-2020.png", "A 10186-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 10186-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 10186-2020.docx", "A 10186-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 10186-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 10186-2020.docx", "A 10186-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 10186-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 10186-2020.docx", "A 10186-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 10186-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 10186-2020.docx", "A 10186-2020")</f>
         <v/>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1701,27 +1701,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 58828-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 58828-2021.xlsx", "A 58828-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 58828-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 58828-2021.png", "A 58828-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 58828-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 58828-2021.docx", "A 58828-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 58828-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 58828-2021.docx", "A 58828-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 58828-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 58828-2021.docx", "A 58828-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 58828-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 58828-2021.docx", "A 58828-2021")</f>
         <v/>
       </c>
     </row>
@@ -1735,7 +1735,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,27 +1786,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 16809-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 16809-2022.xlsx", "A 16809-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 16809-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 16809-2022.png", "A 16809-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 16809-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 16809-2022.docx", "A 16809-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 16809-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 16809-2022.docx", "A 16809-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 16809-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 16809-2022.docx", "A 16809-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 16809-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 16809-2022.docx", "A 16809-2022")</f>
         <v/>
       </c>
     </row>
@@ -1820,7 +1820,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1876,31 +1876,31 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 20782-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 20782-2022.xlsx", "A 20782-2022")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 20782-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 20782-2022.png", "A 20782-2022")</f>
         <v/>
       </c>
       <c r="U16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/knärot/A 20782-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/knärot/A 20782-2022.png", "A 20782-2022")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 20782-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 20782-2022.docx", "A 20782-2022")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 20782-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 20782-2022.docx", "A 20782-2022")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 20782-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 20782-2022.docx", "A 20782-2022")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 20782-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 20782-2022.docx", "A 20782-2022")</f>
         <v/>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1970,27 +1970,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 62767-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 62767-2022.xlsx", "A 62767-2022")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 62767-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 62767-2022.png", "A 62767-2022")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 62767-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 62767-2022.docx", "A 62767-2022")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 62767-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 62767-2022.docx", "A 62767-2022")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 62767-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 62767-2022.docx", "A 62767-2022")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 62767-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 62767-2022.docx", "A 62767-2022")</f>
         <v/>
       </c>
     </row>
@@ -2004,7 +2004,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2060,27 +2060,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 55242-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 55242-2022.xlsx", "A 55242-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 55242-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 55242-2022.png", "A 55242-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 55242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 55242-2022.docx", "A 55242-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 55242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 55242-2022.docx", "A 55242-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 55242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 55242-2022.docx", "A 55242-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 55242-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 55242-2022.docx", "A 55242-2022")</f>
         <v/>
       </c>
     </row>
@@ -2094,7 +2094,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2145,27 +2145,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 3755-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 3755-2023.xlsx", "A 3755-2023")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 3755-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 3755-2023.png", "A 3755-2023")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 3755-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 3755-2023.docx", "A 3755-2023")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 3755-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 3755-2023.docx", "A 3755-2023")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 3755-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 3755-2023.docx", "A 3755-2023")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 3755-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 3755-2023.docx", "A 3755-2023")</f>
         <v/>
       </c>
     </row>
@@ -2179,7 +2179,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2235,27 +2235,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 27637-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 27637-2023.xlsx", "A 27637-2023")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 27637-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 27637-2023.png", "A 27637-2023")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 27637-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 27637-2023.docx", "A 27637-2023")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 27637-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 27637-2023.docx", "A 27637-2023")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 27637-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 27637-2023.docx", "A 27637-2023")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 27637-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 27637-2023.docx", "A 27637-2023")</f>
         <v/>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2325,27 +2325,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 29578-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 29578-2023.xlsx", "A 29578-2023")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 29578-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 29578-2023.png", "A 29578-2023")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 29578-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 29578-2023.docx", "A 29578-2023")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 29578-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 29578-2023.docx", "A 29578-2023")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 29578-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 29578-2023.docx", "A 29578-2023")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 29578-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 29578-2023.docx", "A 29578-2023")</f>
         <v/>
       </c>
     </row>
@@ -2359,7 +2359,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14765,23 +14765,23 @@
       </c>
       <c r="R234" s="2" t="inlineStr"/>
       <c r="U234">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/knärot/A 39524-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/knärot/A 39524-2020.png", "A 39524-2020")</f>
         <v/>
       </c>
       <c r="V234">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 39524-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 39524-2020.docx", "A 39524-2020")</f>
         <v/>
       </c>
       <c r="W234">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 39524-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 39524-2020.docx", "A 39524-2020")</f>
         <v/>
       </c>
       <c r="X234">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 39524-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 39524-2020.docx", "A 39524-2020")</f>
         <v/>
       </c>
       <c r="Y234">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 39524-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 39524-2020.docx", "A 39524-2020")</f>
         <v/>
       </c>
     </row>
@@ -14795,7 +14795,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19128,23 +19128,23 @@
       </c>
       <c r="R308" s="2" t="inlineStr"/>
       <c r="U308">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/knärot/A 46198-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/knärot/A 46198-2021.png", "A 46198-2021")</f>
         <v/>
       </c>
       <c r="V308">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 46198-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 46198-2021.docx", "A 46198-2021")</f>
         <v/>
       </c>
       <c r="W308">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 46198-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 46198-2021.docx", "A 46198-2021")</f>
         <v/>
       </c>
       <c r="X308">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 46198-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 46198-2021.docx", "A 46198-2021")</f>
         <v/>
       </c>
       <c r="Y308">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 46198-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 46198-2021.docx", "A 46198-2021")</f>
         <v/>
       </c>
     </row>
@@ -19158,7 +19158,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27976,7 +27976,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43591</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44771</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27976,7 +27976,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43591</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44771</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +940,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1026,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1117,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1203,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1289,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1470,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1560,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1650,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1735,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1914,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2004,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2094,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2179,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2269,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2359,7 +2359,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2416,7 +2416,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2473,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2530,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2587,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2644,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2701,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2815,7 +2815,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2872,7 +2872,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2929,7 +2929,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2991,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3053,7 +3053,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3110,7 +3110,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3167,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3229,7 +3229,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3286,7 +3286,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3348,7 +3348,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3410,7 +3410,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3467,7 +3467,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3524,7 +3524,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3581,7 +3581,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3638,7 +3638,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3695,7 +3695,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3752,7 +3752,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3809,7 +3809,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3871,7 +3871,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3928,7 +3928,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3985,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4099,7 +4099,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4156,7 +4156,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4213,7 +4213,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4270,7 +4270,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4327,7 +4327,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4384,7 +4384,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4441,7 +4441,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4498,7 +4498,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5529,7 +5529,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5586,7 +5586,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5643,7 +5643,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5700,7 +5700,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5757,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5819,7 +5819,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5876,7 +5876,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5933,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6280,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6337,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6456,7 +6456,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6818,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6880,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6937,7 +6937,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6994,7 +6994,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7051,7 +7051,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7108,7 +7108,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7165,7 +7165,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7222,7 +7222,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7398,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7455,7 +7455,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7512,7 +7512,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7740,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7797,7 +7797,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7854,7 +7854,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7911,7 +7911,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8258,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8320,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8377,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8434,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8553,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8610,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8667,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8724,7 +8724,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8786,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8848,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8905,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8962,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9019,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9076,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9133,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9190,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9252,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9314,7 +9314,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9371,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9485,7 +9485,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9542,7 +9542,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9599,7 +9599,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9656,7 +9656,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9713,7 +9713,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9770,7 +9770,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9827,7 +9827,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9884,7 +9884,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9941,7 +9941,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10003,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10060,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10122,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10184,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10246,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10308,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10365,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10422,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10479,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10536,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10593,7 +10593,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10650,7 +10650,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10712,7 +10712,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10774,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10831,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10888,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10945,7 +10945,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11002,7 +11002,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11059,7 +11059,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11116,7 +11116,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11178,7 +11178,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11359,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11421,7 +11421,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11483,7 +11483,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11545,7 +11545,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11602,7 +11602,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11659,7 +11659,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11721,7 +11721,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11778,7 +11778,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11897,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11954,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12016,7 +12016,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12073,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12130,7 +12130,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12192,7 +12192,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12254,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12311,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12373,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12430,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12492,7 +12492,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12549,7 +12549,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12606,7 +12606,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12663,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12720,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12782,7 +12782,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12839,7 +12839,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12896,7 +12896,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12953,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13010,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13067,7 +13067,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13124,7 +13124,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13181,7 +13181,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13243,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13305,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13367,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13424,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13481,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13538,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13595,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13652,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13714,7 +13714,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13776,7 +13776,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13833,7 +13833,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13890,7 +13890,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13947,7 +13947,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14009,7 +14009,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14071,7 +14071,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14128,7 +14128,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14190,7 +14190,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14247,7 +14247,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14304,7 +14304,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14366,7 +14366,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14428,7 +14428,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14485,7 +14485,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14542,7 +14542,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14599,7 +14599,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14656,7 +14656,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14713,7 +14713,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14795,7 +14795,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14852,7 +14852,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14909,7 +14909,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14971,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15028,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15085,7 +15085,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15142,7 +15142,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15204,7 +15204,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15261,7 +15261,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15318,7 +15318,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15375,7 +15375,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15437,7 +15437,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15499,7 +15499,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15556,7 +15556,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15613,7 +15613,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15670,7 +15670,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15727,7 +15727,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15789,7 +15789,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15846,7 +15846,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15908,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15970,7 +15970,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16032,7 +16032,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16089,7 +16089,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16151,7 +16151,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16213,7 +16213,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16270,7 +16270,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16332,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16394,7 +16394,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16456,7 +16456,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16632,7 +16632,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16689,7 +16689,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16746,7 +16746,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16803,7 +16803,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16860,7 +16860,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16922,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16979,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17103,7 +17103,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17165,7 +17165,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17289,7 +17289,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17346,7 +17346,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17408,7 +17408,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17465,7 +17465,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17522,7 +17522,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17579,7 +17579,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17641,7 +17641,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17698,7 +17698,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17755,7 +17755,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17812,7 +17812,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17869,7 +17869,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17926,7 +17926,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17983,7 +17983,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18501,7 +18501,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18558,7 +18558,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18615,7 +18615,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18672,7 +18672,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18729,7 +18729,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18791,7 +18791,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18848,7 +18848,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18905,7 +18905,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18962,7 +18962,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19019,7 +19019,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19076,7 +19076,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19158,7 +19158,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19220,7 +19220,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19277,7 +19277,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19334,7 +19334,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19391,7 +19391,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19448,7 +19448,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19510,7 +19510,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19572,7 +19572,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19629,7 +19629,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19686,7 +19686,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19743,7 +19743,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19805,7 +19805,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19862,7 +19862,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19924,7 +19924,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19981,7 +19981,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20043,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20100,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20162,7 +20162,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20224,7 +20224,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20286,7 +20286,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20348,7 +20348,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20410,7 +20410,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20467,7 +20467,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20524,7 +20524,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20581,7 +20581,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20638,7 +20638,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20695,7 +20695,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20757,7 +20757,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20814,7 +20814,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20871,7 +20871,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20933,7 +20933,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20990,7 +20990,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21047,7 +21047,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21104,7 +21104,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21161,7 +21161,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21218,7 +21218,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21275,7 +21275,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21332,7 +21332,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21394,7 +21394,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21456,7 +21456,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21518,7 +21518,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21575,7 +21575,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21699,7 +21699,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21823,7 +21823,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21880,7 +21880,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21942,7 +21942,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21999,7 +21999,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22056,7 +22056,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22113,7 +22113,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22175,7 +22175,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22232,7 +22232,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22289,7 +22289,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22351,7 +22351,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22408,7 +22408,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22465,7 +22465,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22527,7 +22527,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22584,7 +22584,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22646,7 +22646,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22708,7 +22708,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22765,7 +22765,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22822,7 +22822,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22879,7 +22879,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22936,7 +22936,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22993,7 +22993,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23050,7 +23050,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23107,7 +23107,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23164,7 +23164,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23221,7 +23221,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23283,7 +23283,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23340,7 +23340,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23402,7 +23402,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23459,7 +23459,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23516,7 +23516,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23573,7 +23573,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23630,7 +23630,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23687,7 +23687,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23744,7 +23744,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23801,7 +23801,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23858,7 +23858,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23920,7 +23920,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23977,7 +23977,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24034,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24091,7 +24091,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24153,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24215,7 +24215,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24272,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24334,7 +24334,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24396,7 +24396,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24458,7 +24458,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24520,7 +24520,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24577,7 +24577,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24639,7 +24639,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24701,7 +24701,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24763,7 +24763,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24825,7 +24825,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24887,7 +24887,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24949,7 +24949,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25011,7 +25011,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25068,7 +25068,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25130,7 +25130,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25192,7 +25192,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25254,7 +25254,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25316,7 +25316,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25378,7 +25378,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25440,7 +25440,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25502,7 +25502,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25559,7 +25559,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25616,7 +25616,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25678,7 +25678,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25740,7 +25740,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25802,7 +25802,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25864,7 +25864,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25926,7 +25926,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25983,7 +25983,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26040,7 +26040,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26102,7 +26102,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26164,7 +26164,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26221,7 +26221,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26283,7 +26283,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26345,7 +26345,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26407,7 +26407,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26469,7 +26469,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26526,7 +26526,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26583,7 +26583,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26645,7 +26645,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26702,7 +26702,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26764,7 +26764,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26821,7 +26821,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26997,7 +26997,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27054,7 +27054,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27111,7 +27111,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27168,7 +27168,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27225,7 +27225,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27282,7 +27282,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27339,7 +27339,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27396,7 +27396,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27453,7 +27453,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27510,7 +27510,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27567,7 +27567,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27624,7 +27624,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27748,7 +27748,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27805,7 +27805,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27862,7 +27862,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27919,7 +27919,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27976,7 +27976,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28033,7 +28033,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28095,7 +28095,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28152,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28276,7 +28276,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28338,7 +28338,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28395,7 +28395,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28457,7 +28457,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28519,7 +28519,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28581,7 +28581,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28643,7 +28643,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28700,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28757,7 +28757,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28819,7 +28819,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28881,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28943,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29005,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29067,7 +29067,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29129,7 +29129,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29186,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29248,7 +29248,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29310,7 +29310,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29372,7 +29372,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29434,7 +29434,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43591</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44771</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -776,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
         <v>3</v>
@@ -800,14 +800,15 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Knärot
 Orange taggsvamp
 Svart taggsvamp
-Talltaggsvamp</t>
+Talltaggsvamp
+Tallfingersvamp</t>
         </is>
       </c>
       <c r="S4">
@@ -849,7 +850,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -940,7 +941,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1026,7 +1027,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1117,7 +1118,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1203,7 +1204,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1289,7 +1290,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1380,7 +1381,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1470,7 +1471,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1560,7 +1561,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1650,7 +1651,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1735,7 +1736,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1820,7 +1821,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1914,7 +1915,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2004,7 +2005,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2094,7 +2095,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2179,7 +2180,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2269,7 +2270,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2359,7 +2360,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2416,7 +2417,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2473,7 +2474,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2530,7 +2531,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2587,7 +2588,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2644,7 +2645,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2701,7 +2702,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2758,7 +2759,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2815,7 +2816,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2872,7 +2873,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2929,7 +2930,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2991,7 +2992,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3053,7 +3054,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3110,7 +3111,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3167,7 +3168,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3229,7 +3230,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3286,7 +3287,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3348,7 +3349,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3410,7 +3411,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3467,7 +3468,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3524,7 +3525,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3581,7 +3582,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3638,7 +3639,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3695,7 +3696,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3752,7 +3753,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3809,7 +3810,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3871,7 +3872,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3928,7 +3929,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3985,7 +3986,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4042,7 +4043,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4099,7 +4100,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4156,7 +4157,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4213,7 +4214,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4270,7 +4271,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4327,7 +4328,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4384,7 +4385,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4441,7 +4442,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4498,7 +4499,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4555,7 +4556,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4617,7 +4618,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4674,7 +4675,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4731,7 +4732,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4788,7 +4789,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4845,7 +4846,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4902,7 +4903,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4959,7 +4960,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5016,7 +5017,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5073,7 +5074,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5130,7 +5131,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5187,7 +5188,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5244,7 +5245,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5301,7 +5302,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5358,7 +5359,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5415,7 +5416,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5472,7 +5473,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5529,7 +5530,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5586,7 +5587,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5643,7 +5644,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5700,7 +5701,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5757,7 +5758,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5819,7 +5820,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5876,7 +5877,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5933,7 +5934,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5990,7 +5991,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6052,7 +6053,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6109,7 +6110,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6166,7 +6167,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6223,7 +6224,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6280,7 +6281,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6337,7 +6338,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6399,7 +6400,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6456,7 +6457,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6518,7 +6519,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6575,7 +6576,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6637,7 +6638,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6694,7 +6695,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6756,7 +6757,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6818,7 +6819,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6880,7 +6881,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6937,7 +6938,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6994,7 +6995,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7051,7 +7052,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7108,7 +7109,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7165,7 +7166,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7222,7 +7223,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7279,7 +7280,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7336,7 +7337,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7398,7 +7399,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7455,7 +7456,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7512,7 +7513,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7569,7 +7570,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7626,7 +7627,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7683,7 +7684,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7740,7 +7741,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7797,7 +7798,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7854,7 +7855,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7911,7 +7912,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7968,7 +7969,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8025,7 +8026,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8082,7 +8083,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8139,7 +8140,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8201,7 +8202,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8258,7 +8259,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8320,7 +8321,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8377,7 +8378,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8434,7 +8435,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8491,7 +8492,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8553,7 +8554,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8610,7 +8611,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8667,7 +8668,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8724,7 +8725,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8786,7 +8787,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8848,7 +8849,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8905,7 +8906,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8962,7 +8963,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9019,7 +9020,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9076,7 +9077,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9133,7 +9134,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9190,7 +9191,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9252,7 +9253,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9314,7 +9315,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9371,7 +9372,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9428,7 +9429,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9485,7 +9486,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9542,7 +9543,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9599,7 +9600,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9656,7 +9657,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9713,7 +9714,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9770,7 +9771,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9827,7 +9828,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9884,7 +9885,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9941,7 +9942,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10003,7 +10004,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10060,7 +10061,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10122,7 +10123,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10184,7 +10185,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10246,7 +10247,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10308,7 +10309,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10365,7 +10366,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10422,7 +10423,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10479,7 +10480,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10536,7 +10537,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10593,7 +10594,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10650,7 +10651,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10712,7 +10713,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10774,7 +10775,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10831,7 +10832,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10888,7 +10889,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10945,7 +10946,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11002,7 +11003,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11059,7 +11060,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11116,7 +11117,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11178,7 +11179,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11240,7 +11241,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11297,7 +11298,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11359,7 +11360,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11421,7 +11422,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11483,7 +11484,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11545,7 +11546,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11602,7 +11603,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11659,7 +11660,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11721,7 +11722,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11778,7 +11779,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11835,7 +11836,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11897,7 +11898,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11954,7 +11955,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12016,7 +12017,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12073,7 +12074,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12130,7 +12131,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12192,7 +12193,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12254,7 +12255,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12311,7 +12312,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12373,7 +12374,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12430,7 +12431,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12492,7 +12493,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12549,7 +12550,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12606,7 +12607,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12663,7 +12664,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12720,7 +12721,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12782,7 +12783,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12839,7 +12840,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12896,7 +12897,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12953,7 +12954,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13010,7 +13011,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13067,7 +13068,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13124,7 +13125,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13181,7 +13182,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13243,7 +13244,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13305,7 +13306,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13367,7 +13368,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13424,7 +13425,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13481,7 +13482,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13538,7 +13539,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13595,7 +13596,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13652,7 +13653,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13714,7 +13715,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13776,7 +13777,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13833,7 +13834,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13890,7 +13891,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13947,7 +13948,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14009,7 +14010,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14071,7 +14072,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14128,7 +14129,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14190,7 +14191,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14247,7 +14248,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14304,7 +14305,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14366,7 +14367,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14428,7 +14429,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14485,7 +14486,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14542,7 +14543,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14599,7 +14600,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14656,7 +14657,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14713,7 +14714,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14795,7 +14796,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14852,7 +14853,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14909,7 +14910,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14971,7 +14972,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15028,7 +15029,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15085,7 +15086,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15142,7 +15143,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15204,7 +15205,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15261,7 +15262,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15318,7 +15319,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15375,7 +15376,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15437,7 +15438,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15499,7 +15500,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15556,7 +15557,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15613,7 +15614,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15670,7 +15671,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15727,7 +15728,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15789,7 +15790,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15846,7 +15847,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15908,7 +15909,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15970,7 +15971,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16032,7 +16033,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16089,7 +16090,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16151,7 +16152,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16213,7 +16214,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16270,7 +16271,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16332,7 +16333,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16394,7 +16395,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16456,7 +16457,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16518,7 +16519,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16575,7 +16576,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16632,7 +16633,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16689,7 +16690,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16746,7 +16747,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16803,7 +16804,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16860,7 +16861,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16922,7 +16923,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16979,7 +16980,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17041,7 +17042,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17103,7 +17104,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17165,7 +17166,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17227,7 +17228,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17289,7 +17290,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17346,7 +17347,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17408,7 +17409,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17465,7 +17466,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17522,7 +17523,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17579,7 +17580,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17641,7 +17642,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17698,7 +17699,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17755,7 +17756,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17812,7 +17813,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17869,7 +17870,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17926,7 +17927,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17983,7 +17984,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18040,7 +18041,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18097,7 +18098,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18154,7 +18155,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18211,7 +18212,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18268,7 +18269,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18325,7 +18326,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18382,7 +18383,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18439,7 +18440,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18501,7 +18502,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18558,7 +18559,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18615,7 +18616,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18672,7 +18673,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18729,7 +18730,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18791,7 +18792,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18848,7 +18849,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18905,7 +18906,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18962,7 +18963,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19019,7 +19020,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19076,7 +19077,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19158,7 +19159,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19220,7 +19221,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19277,7 +19278,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19334,7 +19335,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19391,7 +19392,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19448,7 +19449,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19510,7 +19511,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19572,7 +19573,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19629,7 +19630,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19686,7 +19687,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19743,7 +19744,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19805,7 +19806,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19862,7 +19863,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19924,7 +19925,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19981,7 +19982,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20043,7 +20044,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20100,7 +20101,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20162,7 +20163,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20224,7 +20225,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20286,7 +20287,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20348,7 +20349,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20410,7 +20411,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20467,7 +20468,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20524,7 +20525,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20581,7 +20582,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20638,7 +20639,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20695,7 +20696,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20757,7 +20758,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20814,7 +20815,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20871,7 +20872,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20933,7 +20934,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20990,7 +20991,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21047,7 +21048,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21104,7 +21105,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21161,7 +21162,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21218,7 +21219,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21275,7 +21276,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21332,7 +21333,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21394,7 +21395,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21456,7 +21457,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21518,7 +21519,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21575,7 +21576,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21637,7 +21638,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21699,7 +21700,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21761,7 +21762,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21823,7 +21824,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21880,7 +21881,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21942,7 +21943,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21999,7 +22000,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22056,7 +22057,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22113,7 +22114,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22175,7 +22176,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22232,7 +22233,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22289,7 +22290,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22351,7 +22352,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22408,7 +22409,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22465,7 +22466,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22527,7 +22528,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22584,7 +22585,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22646,7 +22647,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22708,7 +22709,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22765,7 +22766,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22822,7 +22823,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22879,7 +22880,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22936,7 +22937,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22993,7 +22994,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23050,7 +23051,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23107,7 +23108,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23164,7 +23165,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23221,7 +23222,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23283,7 +23284,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23340,7 +23341,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23402,7 +23403,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23459,7 +23460,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23516,7 +23517,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23573,7 +23574,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23630,7 +23631,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23687,7 +23688,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23744,7 +23745,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23801,7 +23802,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23858,7 +23859,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23920,7 +23921,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23977,7 +23978,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24034,7 +24035,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24091,7 +24092,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24153,7 +24154,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24215,7 +24216,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24272,7 +24273,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24334,7 +24335,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24396,7 +24397,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24458,7 +24459,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24520,7 +24521,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24577,7 +24578,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24639,7 +24640,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24701,7 +24702,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24763,7 +24764,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24825,7 +24826,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24887,7 +24888,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24949,7 +24950,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25011,7 +25012,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25068,7 +25069,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25130,7 +25131,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25192,7 +25193,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25254,7 +25255,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25316,7 +25317,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25378,7 +25379,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25440,7 +25441,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25502,7 +25503,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25559,7 +25560,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25616,7 +25617,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25678,7 +25679,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25740,7 +25741,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25802,7 +25803,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25864,7 +25865,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25926,7 +25927,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25983,7 +25984,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26040,7 +26041,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26102,7 +26103,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26164,7 +26165,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26221,7 +26222,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26283,7 +26284,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26345,7 +26346,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26407,7 +26408,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26469,7 +26470,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26526,7 +26527,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26583,7 +26584,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26645,7 +26646,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26702,7 +26703,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26764,7 +26765,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26821,7 +26822,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26883,7 +26884,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26940,7 +26941,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26997,7 +26998,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27054,7 +27055,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27111,7 +27112,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27168,7 +27169,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27225,7 +27226,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27282,7 +27283,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27339,7 +27340,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27396,7 +27397,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27453,7 +27454,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27510,7 +27511,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27567,7 +27568,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27624,7 +27625,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27686,7 +27687,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27748,7 +27749,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27805,7 +27806,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27862,7 +27863,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27919,7 +27920,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27976,7 +27977,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28033,7 +28034,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28095,7 +28096,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28152,7 +28153,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28214,7 +28215,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28276,7 +28277,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28338,7 +28339,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28395,7 +28396,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28457,7 +28458,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28519,7 +28520,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28581,7 +28582,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28643,7 +28644,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28700,7 +28701,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28757,7 +28758,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28819,7 +28820,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28881,7 +28882,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28943,7 +28944,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29005,7 +29006,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29067,7 +29068,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29129,7 +29130,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29186,7 +29187,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29248,7 +29249,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29310,7 +29311,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29372,7 +29373,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29434,7 +29435,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43591</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44771</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9600,7 +9600,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9714,7 +9714,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21762,7 +21762,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24273,7 +24273,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25255,7 +25255,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25927,7 +25927,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27169,7 +27169,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27226,7 +27226,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28758,7 +28758,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29249,7 +29249,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>43591</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -757,7 +757,7 @@
         <v>44771</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -850,7 +850,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +941,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1118,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1204,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1381,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1471,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1651,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1736,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1821,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1915,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2180,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2270,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2360,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2417,7 +2417,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2474,7 +2474,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2531,7 +2531,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2588,7 +2588,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2645,7 +2645,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2702,7 +2702,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2816,7 +2816,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2930,7 +2930,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2992,7 +2992,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3054,7 +3054,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3111,7 +3111,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3168,7 +3168,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3230,7 +3230,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3287,7 +3287,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3349,7 +3349,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3411,7 +3411,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3525,7 +3525,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3582,7 +3582,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3639,7 +3639,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3696,7 +3696,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3810,7 +3810,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3872,7 +3872,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4043,7 +4043,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4100,7 +4100,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4157,7 +4157,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4214,7 +4214,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4271,7 +4271,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4328,7 +4328,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4385,7 +4385,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4442,7 +4442,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4499,7 +4499,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4556,7 +4556,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4618,7 +4618,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4675,7 +4675,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4732,7 +4732,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4789,7 +4789,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4846,7 +4846,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4903,7 +4903,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4960,7 +4960,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5017,7 +5017,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5074,7 +5074,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5131,7 +5131,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5188,7 +5188,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5302,7 +5302,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5359,7 +5359,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5416,7 +5416,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5473,7 +5473,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5530,7 +5530,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5587,7 +5587,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5644,7 +5644,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5701,7 +5701,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5758,7 +5758,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5820,7 +5820,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5877,7 +5877,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5934,7 +5934,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5991,7 +5991,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6053,7 +6053,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6110,7 +6110,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6167,7 +6167,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6224,7 +6224,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6281,7 +6281,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6338,7 +6338,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6400,7 +6400,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6457,7 +6457,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6519,7 +6519,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6638,7 +6638,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6695,7 +6695,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6757,7 +6757,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6819,7 +6819,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6881,7 +6881,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6938,7 +6938,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6995,7 +6995,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7052,7 +7052,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7109,7 +7109,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7223,7 +7223,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7280,7 +7280,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7337,7 +7337,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7399,7 +7399,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7456,7 +7456,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7513,7 +7513,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7570,7 +7570,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7627,7 +7627,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7684,7 +7684,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7741,7 +7741,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7798,7 +7798,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7855,7 +7855,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7912,7 +7912,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7969,7 +7969,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8026,7 +8026,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8083,7 +8083,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8140,7 +8140,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8202,7 +8202,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8259,7 +8259,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8321,7 +8321,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8378,7 +8378,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8435,7 +8435,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8492,7 +8492,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8554,7 +8554,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8611,7 +8611,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8668,7 +8668,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8725,7 +8725,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8787,7 +8787,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8849,7 +8849,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8906,7 +8906,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8963,7 +8963,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9020,7 +9020,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9077,7 +9077,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9134,7 +9134,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9191,7 +9191,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9253,7 +9253,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9315,7 +9315,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9372,7 +9372,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9429,7 +9429,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9486,7 +9486,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9543,7 +9543,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9600,7 +9600,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9657,7 +9657,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9714,7 +9714,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9771,7 +9771,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9828,7 +9828,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9885,7 +9885,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9942,7 +9942,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10004,7 +10004,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10061,7 +10061,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10123,7 +10123,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10185,7 +10185,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10247,7 +10247,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10309,7 +10309,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10366,7 +10366,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10423,7 +10423,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10480,7 +10480,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10537,7 +10537,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10594,7 +10594,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10651,7 +10651,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10713,7 +10713,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10775,7 +10775,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10832,7 +10832,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10889,7 +10889,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10946,7 +10946,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11003,7 +11003,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11060,7 +11060,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11117,7 +11117,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11179,7 +11179,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11241,7 +11241,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11298,7 +11298,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11422,7 +11422,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11484,7 +11484,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11546,7 +11546,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11603,7 +11603,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11660,7 +11660,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11722,7 +11722,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11779,7 +11779,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11898,7 +11898,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11955,7 +11955,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12074,7 +12074,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12131,7 +12131,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12193,7 +12193,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12255,7 +12255,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12312,7 +12312,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12374,7 +12374,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12431,7 +12431,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12493,7 +12493,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12550,7 +12550,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12607,7 +12607,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12664,7 +12664,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12721,7 +12721,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12783,7 +12783,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12840,7 +12840,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12897,7 +12897,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12954,7 +12954,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13011,7 +13011,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13068,7 +13068,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13125,7 +13125,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13182,7 +13182,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13306,7 +13306,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13368,7 +13368,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13425,7 +13425,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13482,7 +13482,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13539,7 +13539,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13596,7 +13596,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13653,7 +13653,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13715,7 +13715,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14010,7 +14010,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14072,7 +14072,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14129,7 +14129,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14191,7 +14191,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14248,7 +14248,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14305,7 +14305,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14367,7 +14367,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14429,7 +14429,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14486,7 +14486,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14543,7 +14543,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14600,7 +14600,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14657,7 +14657,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14714,7 +14714,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14796,7 +14796,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14853,7 +14853,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14910,7 +14910,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14972,7 +14972,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15029,7 +15029,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15086,7 +15086,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15143,7 +15143,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15205,7 +15205,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15262,7 +15262,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15319,7 +15319,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15376,7 +15376,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15438,7 +15438,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15500,7 +15500,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15557,7 +15557,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15614,7 +15614,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15671,7 +15671,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15728,7 +15728,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15790,7 +15790,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15847,7 +15847,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15909,7 +15909,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15971,7 +15971,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16033,7 +16033,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16090,7 +16090,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16152,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16395,7 +16395,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16457,7 +16457,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16519,7 +16519,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16576,7 +16576,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16633,7 +16633,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16690,7 +16690,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16747,7 +16747,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17104,7 +17104,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17166,7 +17166,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17228,7 +17228,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17290,7 +17290,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17347,7 +17347,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17409,7 +17409,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17466,7 +17466,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17523,7 +17523,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17580,7 +17580,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17642,7 +17642,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17699,7 +17699,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17756,7 +17756,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17813,7 +17813,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17870,7 +17870,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17927,7 +17927,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17984,7 +17984,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18041,7 +18041,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18098,7 +18098,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18155,7 +18155,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18212,7 +18212,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18269,7 +18269,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18326,7 +18326,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18383,7 +18383,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18440,7 +18440,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18502,7 +18502,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18559,7 +18559,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18616,7 +18616,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18673,7 +18673,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18730,7 +18730,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18792,7 +18792,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18849,7 +18849,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18906,7 +18906,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18963,7 +18963,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19020,7 +19020,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19077,7 +19077,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19159,7 +19159,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19221,7 +19221,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19278,7 +19278,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19335,7 +19335,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19392,7 +19392,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19449,7 +19449,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19511,7 +19511,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19573,7 +19573,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19630,7 +19630,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19687,7 +19687,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19744,7 +19744,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19806,7 +19806,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19863,7 +19863,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19925,7 +19925,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19982,7 +19982,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20044,7 +20044,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20101,7 +20101,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20163,7 +20163,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20225,7 +20225,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20287,7 +20287,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20349,7 +20349,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20411,7 +20411,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20468,7 +20468,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20525,7 +20525,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20582,7 +20582,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20639,7 +20639,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20696,7 +20696,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20758,7 +20758,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20815,7 +20815,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20872,7 +20872,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20934,7 +20934,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20991,7 +20991,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21048,7 +21048,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21105,7 +21105,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21162,7 +21162,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21219,7 +21219,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21276,7 +21276,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21333,7 +21333,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21395,7 +21395,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21457,7 +21457,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21519,7 +21519,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21576,7 +21576,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21638,7 +21638,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21700,7 +21700,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21762,7 +21762,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21824,7 +21824,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21881,7 +21881,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21943,7 +21943,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22000,7 +22000,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22057,7 +22057,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22114,7 +22114,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22176,7 +22176,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22233,7 +22233,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22290,7 +22290,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22352,7 +22352,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22409,7 +22409,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22466,7 +22466,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22528,7 +22528,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22585,7 +22585,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22647,7 +22647,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22709,7 +22709,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22766,7 +22766,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22823,7 +22823,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22880,7 +22880,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22937,7 +22937,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22994,7 +22994,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23051,7 +23051,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23108,7 +23108,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23165,7 +23165,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23222,7 +23222,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23284,7 +23284,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23341,7 +23341,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23403,7 +23403,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23460,7 +23460,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23517,7 +23517,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23574,7 +23574,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23631,7 +23631,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23688,7 +23688,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23745,7 +23745,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23802,7 +23802,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23859,7 +23859,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23921,7 +23921,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23978,7 +23978,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24035,7 +24035,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24092,7 +24092,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24154,7 +24154,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24216,7 +24216,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24273,7 +24273,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24335,7 +24335,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24397,7 +24397,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24459,7 +24459,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24521,7 +24521,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24578,7 +24578,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24702,7 +24702,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24764,7 +24764,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24888,7 +24888,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24950,7 +24950,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25012,7 +25012,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25069,7 +25069,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25131,7 +25131,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25193,7 +25193,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25255,7 +25255,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25317,7 +25317,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25379,7 +25379,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25441,7 +25441,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25503,7 +25503,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25560,7 +25560,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25617,7 +25617,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25679,7 +25679,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25741,7 +25741,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25803,7 +25803,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25865,7 +25865,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25927,7 +25927,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25984,7 +25984,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26041,7 +26041,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26103,7 +26103,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26165,7 +26165,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26222,7 +26222,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26284,7 +26284,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26346,7 +26346,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26408,7 +26408,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26470,7 +26470,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26527,7 +26527,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26584,7 +26584,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26646,7 +26646,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26703,7 +26703,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26765,7 +26765,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26822,7 +26822,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26884,7 +26884,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26941,7 +26941,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26998,7 +26998,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27055,7 +27055,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27112,7 +27112,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27169,7 +27169,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27226,7 +27226,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27283,7 +27283,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27340,7 +27340,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27397,7 +27397,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27454,7 +27454,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27511,7 +27511,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27568,7 +27568,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27625,7 +27625,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27687,7 +27687,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27749,7 +27749,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27806,7 +27806,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27863,7 +27863,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27920,7 +27920,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27977,7 +27977,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28034,7 +28034,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28096,7 +28096,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28153,7 +28153,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28215,7 +28215,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28277,7 +28277,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28339,7 +28339,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28396,7 +28396,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28458,7 +28458,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28520,7 +28520,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28582,7 +28582,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28644,7 +28644,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28701,7 +28701,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28758,7 +28758,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28820,7 +28820,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28882,7 +28882,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28944,7 +28944,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29006,7 +29006,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29068,7 +29068,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29130,7 +29130,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29187,7 +29187,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29249,7 +29249,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29311,7 +29311,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -661,59 +661,154 @@
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="inlineStr">
         <is>
+          <t>A 31224-2022</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>44771</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>NORDANSTIG</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>6</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>7</v>
+      </c>
+      <c r="R3" s="2" t="inlineStr">
+        <is>
+          <t>Bitter taggsvamp
+Knärot
+Lammticka
+Orange taggsvamp
+Svart taggsvamp
+Talltaggsvamp
+Tallfingersvamp</t>
+        </is>
+      </c>
+      <c r="S3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 31224-2022.xlsx", "A 31224-2022")</f>
+        <v/>
+      </c>
+      <c r="T3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 31224-2022.png", "A 31224-2022")</f>
+        <v/>
+      </c>
+      <c r="U3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/knärot/A 31224-2022.png", "A 31224-2022")</f>
+        <v/>
+      </c>
+      <c r="V3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 31224-2022.docx", "A 31224-2022")</f>
+        <v/>
+      </c>
+      <c r="W3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 31224-2022.docx", "A 31224-2022")</f>
+        <v/>
+      </c>
+      <c r="X3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 31224-2022.docx", "A 31224-2022")</f>
+        <v/>
+      </c>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 31224-2022.docx", "A 31224-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="inlineStr">
+        <is>
           <t>A 22996-2019</t>
         </is>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B4" s="1" t="n">
         <v>43591</v>
       </c>
-      <c r="C3" s="1" t="n">
-        <v>45202</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>NORDANSTIG</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="C4" s="1" t="n">
+        <v>45203</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GÄVLEBORGS LÄN</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>NORDANSTIG</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>11.1</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>3</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J4" t="n">
         <v>2</v>
       </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>2</v>
       </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>5</v>
       </c>
-      <c r="R3" s="2" t="inlineStr">
+      <c r="R4" s="2" t="inlineStr">
         <is>
           <t>Lunglav
 Violettgrå tagellav
@@ -722,124 +817,31 @@
 Stuplav</t>
         </is>
       </c>
-      <c r="S3">
+      <c r="S4">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 22996-2019.xlsx", "A 22996-2019")</f>
         <v/>
       </c>
-      <c r="T3">
+      <c r="T4">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 22996-2019.png", "A 22996-2019")</f>
         <v/>
       </c>
-      <c r="V3">
+      <c r="V4">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 22996-2019.docx", "A 22996-2019")</f>
         <v/>
       </c>
-      <c r="W3">
+      <c r="W4">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 22996-2019.docx", "A 22996-2019")</f>
         <v/>
       </c>
-      <c r="X3">
+      <c r="X4">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 22996-2019.docx", "A 22996-2019")</f>
         <v/>
       </c>
-      <c r="Y3">
+      <c r="Y4">
         <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 22996-2019.docx", "A 22996-2019")</f>
         <v/>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>A 31224-2022</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n">
-        <v>44771</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>45202</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GÄVLEBORGS LÄN</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>NORDANSTIG</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>3</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>4</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>5</v>
-      </c>
-      <c r="R4" s="2" t="inlineStr">
-        <is>
-          <t>Knärot
-Orange taggsvamp
-Svart taggsvamp
-Talltaggsvamp
-Tallfingersvamp</t>
-        </is>
-      </c>
-      <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/artfynd/A 31224-2022.xlsx", "A 31224-2022")</f>
-        <v/>
-      </c>
-      <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/kartor/A 31224-2022.png", "A 31224-2022")</f>
-        <v/>
-      </c>
-      <c r="U4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/knärot/A 31224-2022.png", "A 31224-2022")</f>
-        <v/>
-      </c>
-      <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomål/A 31224-2022.docx", "A 31224-2022")</f>
-        <v/>
-      </c>
-      <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/klagomålsmail/A 31224-2022.docx", "A 31224-2022")</f>
-        <v/>
-      </c>
-      <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsyn/A 31224-2022.docx", "A 31224-2022")</f>
-        <v/>
-      </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_NORDANSTIG/tillsynsmail/A 31224-2022.docx", "A 31224-2022")</f>
-        <v/>
-      </c>
-    </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="inlineStr">
         <is>
@@ -850,7 +852,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -941,7 +943,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1027,7 +1029,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1118,7 +1120,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1204,7 +1206,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1290,7 +1292,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1381,7 +1383,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1471,7 +1473,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1561,7 +1563,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1651,7 +1653,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1736,7 +1738,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1821,7 +1823,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1915,7 +1917,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2005,7 +2007,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2095,7 +2097,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2180,7 +2182,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2270,7 +2272,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2360,7 +2362,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2417,7 +2419,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2474,7 +2476,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2531,7 +2533,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2588,7 +2590,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2645,7 +2647,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2702,7 +2704,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2759,7 +2761,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2816,7 +2818,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2873,7 +2875,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2930,7 +2932,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2992,7 +2994,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3054,7 +3056,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3111,7 +3113,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3168,7 +3170,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3230,7 +3232,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3287,7 +3289,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3349,7 +3351,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3411,7 +3413,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3468,7 +3470,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3525,7 +3527,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3582,7 +3584,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3639,7 +3641,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3696,7 +3698,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3753,7 +3755,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3810,7 +3812,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3872,7 +3874,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3929,7 +3931,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3986,7 +3988,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4043,7 +4045,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4100,7 +4102,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4157,7 +4159,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4214,7 +4216,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4271,7 +4273,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4328,7 +4330,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4385,7 +4387,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4442,7 +4444,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4499,7 +4501,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4556,7 +4558,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4618,7 +4620,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4675,7 +4677,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4732,7 +4734,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4789,7 +4791,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4846,7 +4848,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4903,7 +4905,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4960,7 +4962,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5017,7 +5019,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5074,7 +5076,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5131,7 +5133,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5188,7 +5190,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5245,7 +5247,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5302,7 +5304,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5359,7 +5361,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5416,7 +5418,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5473,7 +5475,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5530,7 +5532,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5587,7 +5589,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5644,7 +5646,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5701,7 +5703,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5758,7 +5760,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5820,7 +5822,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5877,7 +5879,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5934,7 +5936,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5991,7 +5993,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6053,7 +6055,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6110,7 +6112,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6167,7 +6169,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6224,7 +6226,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6281,7 +6283,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6338,7 +6340,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6400,7 +6402,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6457,7 +6459,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6519,7 +6521,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6576,7 +6578,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6638,7 +6640,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6695,7 +6697,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6757,7 +6759,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6819,7 +6821,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6881,7 +6883,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6938,7 +6940,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6995,7 +6997,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7052,7 +7054,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7109,7 +7111,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7166,7 +7168,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7223,7 +7225,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7280,7 +7282,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7337,7 +7339,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7399,7 +7401,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7456,7 +7458,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7513,7 +7515,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7570,7 +7572,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7627,7 +7629,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7684,7 +7686,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7741,7 +7743,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7798,7 +7800,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7855,7 +7857,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7912,7 +7914,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7969,7 +7971,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8026,7 +8028,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8083,7 +8085,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8140,7 +8142,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8202,7 +8204,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8259,7 +8261,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8321,7 +8323,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8378,7 +8380,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8435,7 +8437,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8492,7 +8494,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8554,7 +8556,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8611,7 +8613,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8668,7 +8670,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8725,7 +8727,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8787,7 +8789,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8849,7 +8851,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8906,7 +8908,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8963,7 +8965,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9020,7 +9022,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9077,7 +9079,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9134,7 +9136,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9191,7 +9193,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9253,7 +9255,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9315,7 +9317,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9372,7 +9374,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9429,7 +9431,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9486,7 +9488,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9543,7 +9545,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9600,7 +9602,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9657,7 +9659,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9714,7 +9716,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9771,7 +9773,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9828,7 +9830,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9885,7 +9887,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9942,7 +9944,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10004,7 +10006,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10061,7 +10063,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10123,7 +10125,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10185,7 +10187,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10247,7 +10249,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10309,7 +10311,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10366,7 +10368,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10423,7 +10425,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10480,7 +10482,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10537,7 +10539,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10594,7 +10596,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10651,7 +10653,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10713,7 +10715,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10775,7 +10777,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10832,7 +10834,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10889,7 +10891,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10946,7 +10948,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11003,7 +11005,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11060,7 +11062,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11117,7 +11119,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11179,7 +11181,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11241,7 +11243,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11298,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11360,7 +11362,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11422,7 +11424,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11484,7 +11486,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11546,7 +11548,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11603,7 +11605,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11660,7 +11662,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11722,7 +11724,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11779,7 +11781,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11836,7 +11838,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11898,7 +11900,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11955,7 +11957,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12017,7 +12019,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12074,7 +12076,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12131,7 +12133,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12193,7 +12195,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12255,7 +12257,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12312,7 +12314,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12374,7 +12376,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12431,7 +12433,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12493,7 +12495,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12550,7 +12552,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12607,7 +12609,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12664,7 +12666,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12721,7 +12723,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12783,7 +12785,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12840,7 +12842,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12897,7 +12899,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12954,7 +12956,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13011,7 +13013,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13068,7 +13070,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13125,7 +13127,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13182,7 +13184,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13244,7 +13246,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13306,7 +13308,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13368,7 +13370,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13425,7 +13427,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13482,7 +13484,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13539,7 +13541,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13596,7 +13598,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13653,7 +13655,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13715,7 +13717,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13777,7 +13779,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13834,7 +13836,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13891,7 +13893,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13948,7 +13950,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14010,7 +14012,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14072,7 +14074,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14129,7 +14131,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14191,7 +14193,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14248,7 +14250,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14305,7 +14307,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14367,7 +14369,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14429,7 +14431,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14486,7 +14488,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14543,7 +14545,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14600,7 +14602,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14657,7 +14659,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14714,7 +14716,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14796,7 +14798,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14853,7 +14855,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14910,7 +14912,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14972,7 +14974,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15029,7 +15031,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15086,7 +15088,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15143,7 +15145,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15205,7 +15207,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15262,7 +15264,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15319,7 +15321,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15376,7 +15378,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15438,7 +15440,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15500,7 +15502,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15557,7 +15559,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15614,7 +15616,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15671,7 +15673,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15728,7 +15730,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15790,7 +15792,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15847,7 +15849,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15909,7 +15911,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15971,7 +15973,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16033,7 +16035,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16090,7 +16092,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16152,7 +16154,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16214,7 +16216,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16271,7 +16273,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16333,7 +16335,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16395,7 +16397,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16457,7 +16459,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16519,7 +16521,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16576,7 +16578,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16633,7 +16635,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16690,7 +16692,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16747,7 +16749,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16804,7 +16806,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16861,7 +16863,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16923,7 +16925,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16980,7 +16982,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17042,7 +17044,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17104,7 +17106,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17166,7 +17168,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17228,7 +17230,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17290,7 +17292,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17347,7 +17349,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17409,7 +17411,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17466,7 +17468,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17523,7 +17525,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17580,7 +17582,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17642,7 +17644,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17699,7 +17701,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17756,7 +17758,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17813,7 +17815,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17870,7 +17872,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17927,7 +17929,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17984,7 +17986,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18041,7 +18043,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18098,7 +18100,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18155,7 +18157,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18212,7 +18214,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18269,7 +18271,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18326,7 +18328,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18383,7 +18385,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18440,7 +18442,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18502,7 +18504,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18559,7 +18561,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18616,7 +18618,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18673,7 +18675,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18730,7 +18732,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18792,7 +18794,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18849,7 +18851,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18906,7 +18908,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18963,7 +18965,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19020,7 +19022,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19077,7 +19079,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19159,7 +19161,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19221,7 +19223,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19278,7 +19280,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19335,7 +19337,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19392,7 +19394,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19449,7 +19451,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19511,7 +19513,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19573,7 +19575,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19630,7 +19632,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19687,7 +19689,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19744,7 +19746,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19806,7 +19808,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19863,7 +19865,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19925,7 +19927,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19982,7 +19984,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20044,7 +20046,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20101,7 +20103,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20163,7 +20165,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20225,7 +20227,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20287,7 +20289,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20349,7 +20351,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20411,7 +20413,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20468,7 +20470,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20525,7 +20527,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20582,7 +20584,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20639,7 +20641,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20696,7 +20698,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20758,7 +20760,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20815,7 +20817,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20872,7 +20874,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20934,7 +20936,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20991,7 +20993,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21048,7 +21050,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21105,7 +21107,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21162,7 +21164,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21219,7 +21221,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21276,7 +21278,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21333,7 +21335,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21395,7 +21397,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21457,7 +21459,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21519,7 +21521,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21576,7 +21578,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21638,7 +21640,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21700,7 +21702,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21762,7 +21764,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21824,7 +21826,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21881,7 +21883,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21943,7 +21945,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22000,7 +22002,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22057,7 +22059,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22114,7 +22116,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22176,7 +22178,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22233,7 +22235,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22290,7 +22292,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22352,7 +22354,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22409,7 +22411,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22466,7 +22468,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22528,7 +22530,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22585,7 +22587,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22647,7 +22649,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22709,7 +22711,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22766,7 +22768,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22823,7 +22825,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22880,7 +22882,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22937,7 +22939,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22994,7 +22996,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23051,7 +23053,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23108,7 +23110,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23165,7 +23167,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23222,7 +23224,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23284,7 +23286,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23341,7 +23343,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23403,7 +23405,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23460,7 +23462,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23517,7 +23519,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23574,7 +23576,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23631,7 +23633,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23688,7 +23690,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23745,7 +23747,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23802,7 +23804,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23859,7 +23861,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23921,7 +23923,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23978,7 +23980,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24035,7 +24037,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24092,7 +24094,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24154,7 +24156,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24216,7 +24218,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24273,7 +24275,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24335,7 +24337,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24397,7 +24399,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24459,7 +24461,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24521,7 +24523,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24578,7 +24580,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24640,7 +24642,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24702,7 +24704,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24764,7 +24766,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24826,7 +24828,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24888,7 +24890,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24950,7 +24952,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25012,7 +25014,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25069,7 +25071,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25131,7 +25133,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25193,7 +25195,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25255,7 +25257,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25317,7 +25319,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25379,7 +25381,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25441,7 +25443,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25503,7 +25505,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25560,7 +25562,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25617,7 +25619,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25679,7 +25681,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25741,7 +25743,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25803,7 +25805,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25865,7 +25867,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25927,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25984,7 +25986,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26041,7 +26043,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26103,7 +26105,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26165,7 +26167,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26222,7 +26224,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26284,7 +26286,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26346,7 +26348,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26408,7 +26410,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26470,7 +26472,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26527,7 +26529,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26584,7 +26586,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26646,7 +26648,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26703,7 +26705,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26765,7 +26767,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26822,7 +26824,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26884,7 +26886,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26941,7 +26943,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26998,7 +27000,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27055,7 +27057,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27112,7 +27114,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27169,7 +27171,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27226,7 +27228,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27283,7 +27285,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27340,7 +27342,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27397,7 +27399,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27454,7 +27456,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27511,7 +27513,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27568,7 +27570,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27625,7 +27627,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27687,7 +27689,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27749,7 +27751,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27806,7 +27808,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27863,7 +27865,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27920,7 +27922,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27977,7 +27979,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28034,7 +28036,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28096,7 +28098,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28153,7 +28155,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28215,7 +28217,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28277,7 +28279,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28339,7 +28341,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28396,7 +28398,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28458,7 +28460,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28520,7 +28522,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28582,7 +28584,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28644,7 +28646,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28701,7 +28703,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28758,7 +28760,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28820,7 +28822,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28882,7 +28884,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28944,7 +28946,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29006,7 +29008,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29068,7 +29070,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29130,7 +29132,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29187,7 +29189,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29249,7 +29251,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29311,7 +29313,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29373,7 +29375,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29435,7 +29437,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44771</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43591</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20760,7 +20760,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20874,7 +20874,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24766,7 +24766,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25014,7 +25014,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26286,7 +26286,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26348,7 +26348,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26410,7 +26410,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26886,7 +26886,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27000,7 +27000,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28217,7 +28217,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45204</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44771</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43591</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20760,7 +20760,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20874,7 +20874,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24766,7 +24766,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25014,7 +25014,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26286,7 +26286,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26348,7 +26348,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26410,7 +26410,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26886,7 +26886,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27000,7 +27000,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28217,7 +28217,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45204</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>

--- a/Översikt NORDANSTIG.xlsx
+++ b/Översikt NORDANSTIG.xlsx
@@ -572,7 +572,7 @@
         <v>44036</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -668,7 +668,7 @@
         <v>44771</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -763,7 +763,7 @@
         <v>43591</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -852,7 +852,7 @@
         <v>43557</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -943,7 +943,7 @@
         <v>44008</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1029,7 +1029,7 @@
         <v>44021</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1120,7 +1120,7 @@
         <v>44643</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         <v>44806</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1292,7 +1292,7 @@
         <v>44972</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1383,7 +1383,7 @@
         <v>43504</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1473,7 +1473,7 @@
         <v>43699</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1563,7 +1563,7 @@
         <v>43885</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1653,7 +1653,7 @@
         <v>44489</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1738,7 +1738,7 @@
         <v>44673</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         <v>44701</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1917,7 +1917,7 @@
         <v>44884</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2007,7 +2007,7 @@
         <v>44886</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2097,7 +2097,7 @@
         <v>44951</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2182,7 +2182,7 @@
         <v>45097</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2272,7 +2272,7 @@
         <v>45106</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2362,7 +2362,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2419,7 +2419,7 @@
         <v>43350</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>43353</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2533,7 +2533,7 @@
         <v>43362</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2590,7 +2590,7 @@
         <v>43378</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2647,7 +2647,7 @@
         <v>43378</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2704,7 +2704,7 @@
         <v>43385</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2761,7 +2761,7 @@
         <v>43385</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2818,7 +2818,7 @@
         <v>43397</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2875,7 +2875,7 @@
         <v>43411</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2932,7 +2932,7 @@
         <v>43411</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2994,7 +2994,7 @@
         <v>43411</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3056,7 +3056,7 @@
         <v>43412</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3113,7 +3113,7 @@
         <v>43412</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3170,7 +3170,7 @@
         <v>43412</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3232,7 +3232,7 @@
         <v>43412</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3289,7 +3289,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3351,7 +3351,7 @@
         <v>43412</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3413,7 +3413,7 @@
         <v>43412</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3470,7 +3470,7 @@
         <v>43412</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3527,7 +3527,7 @@
         <v>43423</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3584,7 +3584,7 @@
         <v>43423</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3641,7 +3641,7 @@
         <v>43423</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3698,7 +3698,7 @@
         <v>43424</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3755,7 +3755,7 @@
         <v>43427</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3812,7 +3812,7 @@
         <v>43432</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3874,7 +3874,7 @@
         <v>43434</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3931,7 +3931,7 @@
         <v>43434</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3988,7 +3988,7 @@
         <v>43440</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4045,7 +4045,7 @@
         <v>43440</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4102,7 +4102,7 @@
         <v>43441</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4159,7 +4159,7 @@
         <v>43444</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4216,7 +4216,7 @@
         <v>43445</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4273,7 +4273,7 @@
         <v>43445</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4330,7 +4330,7 @@
         <v>43445</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4387,7 +4387,7 @@
         <v>43445</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4444,7 +4444,7 @@
         <v>43447</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4501,7 +4501,7 @@
         <v>43448</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4558,7 +4558,7 @@
         <v>43448</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4620,7 +4620,7 @@
         <v>43448</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4677,7 +4677,7 @@
         <v>43448</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4734,7 +4734,7 @@
         <v>43452</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
         <v>43452</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4848,7 +4848,7 @@
         <v>43455</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4905,7 +4905,7 @@
         <v>43455</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4962,7 +4962,7 @@
         <v>43461</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5019,7 +5019,7 @@
         <v>43467</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5076,7 +5076,7 @@
         <v>43467</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5133,7 +5133,7 @@
         <v>43467</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5190,7 +5190,7 @@
         <v>43467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5247,7 +5247,7 @@
         <v>43467</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5304,7 +5304,7 @@
         <v>43468</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>43468</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         <v>43468</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5475,7 +5475,7 @@
         <v>43468</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5532,7 +5532,7 @@
         <v>43474</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5589,7 +5589,7 @@
         <v>43481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5646,7 +5646,7 @@
         <v>43481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5703,7 +5703,7 @@
         <v>43483</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5760,7 +5760,7 @@
         <v>43483</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         <v>43489</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         <v>43493</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         <v>43498</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5993,7 +5993,7 @@
         <v>43500</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>43500</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6112,7 +6112,7 @@
         <v>43500</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6169,7 +6169,7 @@
         <v>43501</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6226,7 +6226,7 @@
         <v>43501</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6283,7 +6283,7 @@
         <v>43502</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6340,7 +6340,7 @@
         <v>43510</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6402,7 +6402,7 @@
         <v>43525</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6459,7 +6459,7 @@
         <v>43529</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6521,7 +6521,7 @@
         <v>43529</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6578,7 +6578,7 @@
         <v>43529</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6640,7 +6640,7 @@
         <v>43536</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6697,7 +6697,7 @@
         <v>43545</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6759,7 +6759,7 @@
         <v>43557</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6821,7 +6821,7 @@
         <v>43564</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         <v>43578</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6940,7 +6940,7 @@
         <v>43581</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6997,7 +6997,7 @@
         <v>43585</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7054,7 +7054,7 @@
         <v>43585</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         <v>43598</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7168,7 +7168,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         <v>43608</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7282,7 +7282,7 @@
         <v>43608</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7339,7 +7339,7 @@
         <v>43614</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7401,7 +7401,7 @@
         <v>43618</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7458,7 +7458,7 @@
         <v>43618</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7515,7 +7515,7 @@
         <v>43618</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7572,7 +7572,7 @@
         <v>43618</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7629,7 +7629,7 @@
         <v>43626</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7686,7 +7686,7 @@
         <v>43626</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7743,7 +7743,7 @@
         <v>43634</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7800,7 +7800,7 @@
         <v>43635</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7857,7 +7857,7 @@
         <v>43642</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7914,7 +7914,7 @@
         <v>43643</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7971,7 +7971,7 @@
         <v>43647</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8028,7 +8028,7 @@
         <v>43648</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8085,7 +8085,7 @@
         <v>43648</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8142,7 +8142,7 @@
         <v>43689</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8204,7 +8204,7 @@
         <v>43689</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8261,7 +8261,7 @@
         <v>43689</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8323,7 +8323,7 @@
         <v>43699</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8380,7 +8380,7 @@
         <v>43700</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8437,7 +8437,7 @@
         <v>43700</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8494,7 +8494,7 @@
         <v>43700</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8556,7 +8556,7 @@
         <v>43700</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8613,7 +8613,7 @@
         <v>43713</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8670,7 +8670,7 @@
         <v>43714</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8727,7 +8727,7 @@
         <v>43717</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8789,7 +8789,7 @@
         <v>43718</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8851,7 +8851,7 @@
         <v>43725</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         <v>43725</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8965,7 +8965,7 @@
         <v>43725</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9022,7 +9022,7 @@
         <v>43734</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9079,7 +9079,7 @@
         <v>43741</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9136,7 +9136,7 @@
         <v>43746</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9193,7 +9193,7 @@
         <v>43748</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9255,7 +9255,7 @@
         <v>43748</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9317,7 +9317,7 @@
         <v>43754</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9374,7 +9374,7 @@
         <v>43761</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9431,7 +9431,7 @@
         <v>43773</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9488,7 +9488,7 @@
         <v>43774</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9545,7 +9545,7 @@
         <v>43775</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9602,7 +9602,7 @@
         <v>43780</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9659,7 +9659,7 @@
         <v>43790</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9716,7 +9716,7 @@
         <v>43790</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9773,7 +9773,7 @@
         <v>43793</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9830,7 +9830,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9887,7 +9887,7 @@
         <v>43812</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9944,7 +9944,7 @@
         <v>43815</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10006,7 +10006,7 @@
         <v>43816</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10063,7 +10063,7 @@
         <v>43816</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10125,7 +10125,7 @@
         <v>43822</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10187,7 +10187,7 @@
         <v>43833</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10249,7 +10249,7 @@
         <v>43837</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10311,7 +10311,7 @@
         <v>43847</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10368,7 +10368,7 @@
         <v>43847</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10425,7 +10425,7 @@
         <v>43850</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10482,7 +10482,7 @@
         <v>43857</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10539,7 +10539,7 @@
         <v>43879</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10596,7 +10596,7 @@
         <v>43887</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10653,7 +10653,7 @@
         <v>43899</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10715,7 +10715,7 @@
         <v>43922</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
         <v>43926</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10834,7 +10834,7 @@
         <v>43926</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10891,7 +10891,7 @@
         <v>43926</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10948,7 +10948,7 @@
         <v>43926</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -11005,7 +11005,7 @@
         <v>43927</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11062,7 +11062,7 @@
         <v>43928</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11119,7 +11119,7 @@
         <v>43930</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11181,7 +11181,7 @@
         <v>43930</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11243,7 +11243,7 @@
         <v>43930</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         <v>43942</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11362,7 +11362,7 @@
         <v>43943</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11424,7 +11424,7 @@
         <v>43943</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11486,7 +11486,7 @@
         <v>43945</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11548,7 +11548,7 @@
         <v>43945</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11605,7 +11605,7 @@
         <v>43951</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11662,7 +11662,7 @@
         <v>43951</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11724,7 +11724,7 @@
         <v>43955</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
         <v>43955</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11838,7 +11838,7 @@
         <v>43956</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11900,7 +11900,7 @@
         <v>43958</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11957,7 +11957,7 @@
         <v>43959</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -12019,7 +12019,7 @@
         <v>43962</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12076,7 +12076,7 @@
         <v>43966</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12133,7 +12133,7 @@
         <v>43973</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12195,7 +12195,7 @@
         <v>43973</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12257,7 +12257,7 @@
         <v>43973</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12314,7 +12314,7 @@
         <v>43976</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12376,7 +12376,7 @@
         <v>43976</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12433,7 +12433,7 @@
         <v>43976</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12495,7 +12495,7 @@
         <v>43977</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12552,7 +12552,7 @@
         <v>43978</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12609,7 +12609,7 @@
         <v>43979</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12666,7 +12666,7 @@
         <v>43979</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12723,7 +12723,7 @@
         <v>43980</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12785,7 +12785,7 @@
         <v>43983</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12842,7 +12842,7 @@
         <v>43983</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12899,7 +12899,7 @@
         <v>43984</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12956,7 +12956,7 @@
         <v>43985</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -13013,7 +13013,7 @@
         <v>43986</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -13070,7 +13070,7 @@
         <v>43991</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13127,7 +13127,7 @@
         <v>43992</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13184,7 +13184,7 @@
         <v>43994</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13246,7 +13246,7 @@
         <v>44004</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13308,7 +13308,7 @@
         <v>44004</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13370,7 +13370,7 @@
         <v>44005</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13427,7 +13427,7 @@
         <v>44007</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13484,7 +13484,7 @@
         <v>44007</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
         <v>44007</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13598,7 +13598,7 @@
         <v>44007</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13655,7 +13655,7 @@
         <v>44011</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13717,7 +13717,7 @@
         <v>44011</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13779,7 +13779,7 @@
         <v>44012</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13836,7 +13836,7 @@
         <v>44012</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13893,7 +13893,7 @@
         <v>44012</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13950,7 +13950,7 @@
         <v>44013</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -14012,7 +14012,7 @@
         <v>44013</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -14074,7 +14074,7 @@
         <v>44018</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14131,7 +14131,7 @@
         <v>44028</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14193,7 +14193,7 @@
         <v>44034</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14250,7 +14250,7 @@
         <v>44048</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14307,7 +14307,7 @@
         <v>44050</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14369,7 +14369,7 @@
         <v>44054</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14431,7 +14431,7 @@
         <v>44054</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14488,7 +14488,7 @@
         <v>44055</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14545,7 +14545,7 @@
         <v>44055</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14602,7 +14602,7 @@
         <v>44055</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14659,7 +14659,7 @@
         <v>44061</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14716,7 +14716,7 @@
         <v>44064</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14798,7 +14798,7 @@
         <v>44082</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44082</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44090</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>44090</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>44090</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>44092</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>44095</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15207,7 +15207,7 @@
         <v>44102</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15264,7 +15264,7 @@
         <v>44104</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44112</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44116</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15440,7 +15440,7 @@
         <v>44124</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15502,7 +15502,7 @@
         <v>44125</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15559,7 +15559,7 @@
         <v>44127</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15616,7 +15616,7 @@
         <v>44130</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15673,7 +15673,7 @@
         <v>44130</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15730,7 +15730,7 @@
         <v>44132</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15792,7 +15792,7 @@
         <v>44138</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15849,7 +15849,7 @@
         <v>44139</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15911,7 +15911,7 @@
         <v>44139</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15973,7 +15973,7 @@
         <v>44139</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -16035,7 +16035,7 @@
         <v>44140</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -16092,7 +16092,7 @@
         <v>44146</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -16154,7 +16154,7 @@
         <v>44147</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16216,7 +16216,7 @@
         <v>44152</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16273,7 +16273,7 @@
         <v>44154</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16335,7 +16335,7 @@
         <v>44167</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16397,7 +16397,7 @@
         <v>44172</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16459,7 +16459,7 @@
         <v>44172</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16521,7 +16521,7 @@
         <v>44174</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16578,7 +16578,7 @@
         <v>44190</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16635,7 +16635,7 @@
         <v>44190</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16692,7 +16692,7 @@
         <v>44190</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16749,7 +16749,7 @@
         <v>44190</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16806,7 +16806,7 @@
         <v>44207</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16863,7 +16863,7 @@
         <v>44208</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16925,7 +16925,7 @@
         <v>44208</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16982,7 +16982,7 @@
         <v>44208</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -17044,7 +17044,7 @@
         <v>44218</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -17106,7 +17106,7 @@
         <v>44223</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -17168,7 +17168,7 @@
         <v>44228</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -17230,7 +17230,7 @@
         <v>44231</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17292,7 +17292,7 @@
         <v>44235</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17349,7 +17349,7 @@
         <v>44236</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17411,7 +17411,7 @@
         <v>44236</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17468,7 +17468,7 @@
         <v>44237</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17525,7 +17525,7 @@
         <v>44237</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17582,7 +17582,7 @@
         <v>44242</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17644,7 +17644,7 @@
         <v>44243</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17701,7 +17701,7 @@
         <v>44249</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17758,7 +17758,7 @@
         <v>44258</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17815,7 +17815,7 @@
         <v>44258</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17872,7 +17872,7 @@
         <v>44263</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17929,7 +17929,7 @@
         <v>44284</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17986,7 +17986,7 @@
         <v>44284</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -18043,7 +18043,7 @@
         <v>44284</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -18100,7 +18100,7 @@
         <v>44287</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -18157,7 +18157,7 @@
         <v>44309</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -18214,7 +18214,7 @@
         <v>44312</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18271,7 +18271,7 @@
         <v>44329</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18328,7 +18328,7 @@
         <v>44330</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18385,7 +18385,7 @@
         <v>44348</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18442,7 +18442,7 @@
         <v>44348</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18504,7 +18504,7 @@
         <v>44349</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18561,7 +18561,7 @@
         <v>44349</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18618,7 +18618,7 @@
         <v>44357</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18675,7 +18675,7 @@
         <v>44357</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18732,7 +18732,7 @@
         <v>44362</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18794,7 +18794,7 @@
         <v>44364</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18851,7 +18851,7 @@
         <v>44379</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18908,7 +18908,7 @@
         <v>44386</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18965,7 +18965,7 @@
         <v>44433</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -19022,7 +19022,7 @@
         <v>44439</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -19079,7 +19079,7 @@
         <v>44442</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -19161,7 +19161,7 @@
         <v>44448</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -19223,7 +19223,7 @@
         <v>44454</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -19280,7 +19280,7 @@
         <v>44460</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19337,7 +19337,7 @@
         <v>44461</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19394,7 +19394,7 @@
         <v>44461</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19451,7 +19451,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>44475</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19575,7 +19575,7 @@
         <v>44489</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19632,7 +19632,7 @@
         <v>44490</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>44490</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44501</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44503</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>44504</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19927,7 +19927,7 @@
         <v>44509</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19984,7 +19984,7 @@
         <v>44525</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -20046,7 +20046,7 @@
         <v>44529</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -20103,7 +20103,7 @@
         <v>44532</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -20165,7 +20165,7 @@
         <v>44540</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -20227,7 +20227,7 @@
         <v>44544</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -20289,7 +20289,7 @@
         <v>44544</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20351,7 +20351,7 @@
         <v>44544</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20413,7 +20413,7 @@
         <v>44545</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20470,7 +20470,7 @@
         <v>44545</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20527,7 +20527,7 @@
         <v>44547</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20584,7 +20584,7 @@
         <v>44551</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20641,7 +20641,7 @@
         <v>44574</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20698,7 +20698,7 @@
         <v>44575</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20760,7 +20760,7 @@
         <v>44579</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20817,7 +20817,7 @@
         <v>44586</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20874,7 +20874,7 @@
         <v>44586</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20936,7 +20936,7 @@
         <v>44589</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20993,7 +20993,7 @@
         <v>44596</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -21050,7 +21050,7 @@
         <v>44596</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -21107,7 +21107,7 @@
         <v>44599</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -21164,7 +21164,7 @@
         <v>44601</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -21221,7 +21221,7 @@
         <v>44603</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -21278,7 +21278,7 @@
         <v>44605</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21335,7 +21335,7 @@
         <v>44608</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21397,7 +21397,7 @@
         <v>44628</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21459,7 +21459,7 @@
         <v>44635</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21521,7 +21521,7 @@
         <v>44652</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21578,7 +21578,7 @@
         <v>44664</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21640,7 +21640,7 @@
         <v>44678</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21702,7 +21702,7 @@
         <v>44678</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21764,7 +21764,7 @@
         <v>44684</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21826,7 +21826,7 @@
         <v>44685</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21883,7 +21883,7 @@
         <v>44686</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21945,7 +21945,7 @@
         <v>44686</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -22002,7 +22002,7 @@
         <v>44690</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -22059,7 +22059,7 @@
         <v>44692</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -22116,7 +22116,7 @@
         <v>44692</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -22178,7 +22178,7 @@
         <v>44692</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -22235,7 +22235,7 @@
         <v>44699</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -22292,7 +22292,7 @@
         <v>44703</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -22354,7 +22354,7 @@
         <v>44703</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22411,7 +22411,7 @@
         <v>44704</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22468,7 +22468,7 @@
         <v>44704</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22530,7 +22530,7 @@
         <v>44704</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22587,7 +22587,7 @@
         <v>44711</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22649,7 +22649,7 @@
         <v>44713</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22711,7 +22711,7 @@
         <v>44713</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22768,7 +22768,7 @@
         <v>44713</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22825,7 +22825,7 @@
         <v>44720</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22882,7 +22882,7 @@
         <v>44728</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22939,7 +22939,7 @@
         <v>44728</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22996,7 +22996,7 @@
         <v>44728</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -23053,7 +23053,7 @@
         <v>44734</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -23110,7 +23110,7 @@
         <v>44739</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -23167,7 +23167,7 @@
         <v>44748</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -23224,7 +23224,7 @@
         <v>44764</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -23286,7 +23286,7 @@
         <v>44767</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -23343,7 +23343,7 @@
         <v>44777</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23405,7 +23405,7 @@
         <v>44783</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23462,7 +23462,7 @@
         <v>44783</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23519,7 +23519,7 @@
         <v>44789</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23576,7 +23576,7 @@
         <v>44790</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23633,7 +23633,7 @@
         <v>44795</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23690,7 +23690,7 @@
         <v>44798</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23747,7 +23747,7 @@
         <v>44799</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23804,7 +23804,7 @@
         <v>44804</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23861,7 +23861,7 @@
         <v>44806</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23923,7 +23923,7 @@
         <v>44806</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23980,7 +23980,7 @@
         <v>44808</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -24037,7 +24037,7 @@
         <v>44811</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -24094,7 +24094,7 @@
         <v>44823</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -24156,7 +24156,7 @@
         <v>44823</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -24218,7 +24218,7 @@
         <v>44825</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -24275,7 +24275,7 @@
         <v>44830</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -24337,7 +24337,7 @@
         <v>44830</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24399,7 +24399,7 @@
         <v>44851</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24461,7 +24461,7 @@
         <v>44855</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24523,7 +24523,7 @@
         <v>44869</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24580,7 +24580,7 @@
         <v>44874</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24642,7 +24642,7 @@
         <v>44874</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24704,7 +24704,7 @@
         <v>44874</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24766,7 +24766,7 @@
         <v>44874</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24828,7 +24828,7 @@
         <v>44876</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24890,7 +24890,7 @@
         <v>44879</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24952,7 +24952,7 @@
         <v>44881</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -25014,7 +25014,7 @@
         <v>44881</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -25071,7 +25071,7 @@
         <v>44886</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         <v>44886</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -25195,7 +25195,7 @@
         <v>44886</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -25257,7 +25257,7 @@
         <v>44886</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -25319,7 +25319,7 @@
         <v>44888</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -25381,7 +25381,7 @@
         <v>44893</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44894</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25505,7 +25505,7 @@
         <v>44896</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25562,7 +25562,7 @@
         <v>44900</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25619,7 +25619,7 @@
         <v>44900</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>44900</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25743,7 +25743,7 @@
         <v>44901</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25805,7 +25805,7 @@
         <v>44907</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25867,7 +25867,7 @@
         <v>44914</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25929,7 +25929,7 @@
         <v>44915</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25986,7 +25986,7 @@
         <v>44916</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -26043,7 +26043,7 @@
         <v>44937</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -26105,7 +26105,7 @@
         <v>44938</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -26167,7 +26167,7 @@
         <v>44942</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -26224,7 +26224,7 @@
         <v>44945</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -26286,7 +26286,7 @@
         <v>44949</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -26348,7 +26348,7 @@
         <v>44952</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -26410,7 +26410,7 @@
         <v>44953</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -26472,7 +26472,7 @@
         <v>44960</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26529,7 +26529,7 @@
         <v>44960</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26586,7 +26586,7 @@
         <v>44963</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26648,7 +26648,7 @@
         <v>44964</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26705,7 +26705,7 @@
         <v>44979</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26767,7 +26767,7 @@
         <v>44980</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26824,7 +26824,7 @@
         <v>44985</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26886,7 +26886,7 @@
         <v>44987</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26943,7 +26943,7 @@
         <v>44994</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -27000,7 +27000,7 @@
         <v>44994</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -27057,7 +27057,7 @@
         <v>45001</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -27114,7 +27114,7 @@
         <v>45019</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -27171,7 +27171,7 @@
         <v>45037</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -27228,7 +27228,7 @@
         <v>45037</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -27285,7 +27285,7 @@
         <v>45044</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -27342,7 +27342,7 @@
         <v>45055</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -27399,7 +27399,7 @@
         <v>45058</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -27456,7 +27456,7 @@
         <v>45061</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27513,7 +27513,7 @@
         <v>45062</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27570,7 +27570,7 @@
         <v>45063</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27627,7 +27627,7 @@
         <v>45063</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27689,7 +27689,7 @@
         <v>45063</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27751,7 +27751,7 @@
         <v>45068</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27808,7 +27808,7 @@
         <v>45070</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27865,7 +27865,7 @@
         <v>45070</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27922,7 +27922,7 @@
         <v>45070</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27979,7 +27979,7 @@
         <v>45072</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -28036,7 +28036,7 @@
         <v>45075</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -28098,7 +28098,7 @@
         <v>45076</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -28155,7 +28155,7 @@
         <v>45078</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -28217,7 +28217,7 @@
         <v>45079</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -28279,7 +28279,7 @@
         <v>45086</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -28341,7 +28341,7 @@
         <v>45089</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         <v>45091</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -28460,7 +28460,7 @@
         <v>45099</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -28522,7 +28522,7 @@
         <v>45103</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28584,7 +28584,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28646,7 +28646,7 @@
         <v>45120</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28703,7 +28703,7 @@
         <v>45120</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28760,7 +28760,7 @@
         <v>45125</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28822,7 +28822,7 @@
         <v>45125</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28884,7 +28884,7 @@
         <v>45132</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28946,7 +28946,7 @@
         <v>45142</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -29008,7 +29008,7 @@
         <v>45142</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -29070,7 +29070,7 @@
         <v>45142</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -29132,7 +29132,7 @@
         <v>45146</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -29189,7 +29189,7 @@
         <v>45163</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -29251,7 +29251,7 @@
         <v>45163</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -29313,7 +29313,7 @@
         <v>45163</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -29375,7 +29375,7 @@
         <v>45176</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -29437,7 +29437,7 @@
         <v>45176</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
